--- a/.docs/data/Sites Objects Schemas REV7 ISSUED.xlsx
+++ b/.docs/data/Sites Objects Schemas REV7 ISSUED.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="12" activeTab="18"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SITE Fields" sheetId="1" r:id="rId1"/>
@@ -2286,7 +2286,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,13 +2296,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2454,7 +2447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2589,12 +2582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2631,12 +2618,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2650,12 +2631,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,28 +2826,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2881,118 +2859,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3202,11 +3177,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="NS Sites"/>
       <sheetName val="SITES TEST DATA"/>
-      <sheetName val="NS Sites"/>
       <sheetName val="INFRASTRUCTURE TEST DATA"/>
+      <sheetName val="LOCKS TEST DATA"/>
       <sheetName val="CUSTOMER PRESENCE"/>
-      <sheetName val="LOCKS TEST DATA"/>
       <sheetName val="INSPECTIONS"/>
       <sheetName val="FACILITIES SERVICE"/>
       <sheetName val="GENERATOR SERVICE"/>
@@ -3586,12 +3561,12 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -3804,7 +3779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:7">
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -3827,7 +3802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" ht="28.5" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -3850,7 +3825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="27" spans="1:7">
+    <row r="12" ht="28.5" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -3965,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:7">
+    <row r="17" ht="28.5" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
@@ -4009,7 +3984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:7">
+    <row r="19" ht="28.5" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>53</v>
       </c>
@@ -4120,7 +4095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -4143,7 +4118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -4275,7 +4250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>76</v>
       </c>
@@ -4813,7 +4788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="67.5" spans="1:7">
+    <row r="55" ht="57" spans="1:7">
       <c r="A55" s="7" t="s">
         <v>113</v>
       </c>
@@ -4905,7 +4880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:7">
+    <row r="59" ht="28.5" spans="1:7">
       <c r="A59" s="17" t="s">
         <v>122</v>
       </c>
@@ -4928,7 +4903,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" ht="28.5" spans="1:7">
       <c r="A60" s="17" t="s">
         <v>125</v>
       </c>
@@ -4991,7 +4966,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" ht="27" spans="1:7">
+    <row r="63" ht="28.5" spans="1:7">
       <c r="A63" s="17" t="s">
         <v>133</v>
       </c>
@@ -5069,7 +5044,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="39"/>
     </row>
-    <row r="67" ht="27" spans="1:7">
+    <row r="67" ht="28.5" spans="1:7">
       <c r="A67" s="17" t="s">
         <v>141</v>
       </c>
@@ -5090,7 +5065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:7">
+    <row r="68" spans="1:7">
       <c r="A68" s="7" t="s">
         <v>144</v>
       </c>
@@ -5111,7 +5086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" ht="27" spans="1:7">
+    <row r="69" spans="1:7">
       <c r="A69" s="7" t="s">
         <v>147</v>
       </c>
@@ -5132,7 +5107,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:7">
+    <row r="70" spans="1:7">
       <c r="A70" s="7" t="s">
         <v>148</v>
       </c>
@@ -5155,7 +5130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:7">
+    <row r="71" ht="28.5" spans="1:7">
       <c r="A71" s="17" t="s">
         <v>149</v>
       </c>
@@ -5330,7 +5305,7 @@
       </c>
       <c r="G79" s="29"/>
     </row>
-    <row r="80" ht="27" spans="1:7">
+    <row r="80" ht="28.5" spans="1:7">
       <c r="A80" s="27" t="s">
         <v>164</v>
       </c>
@@ -5368,7 +5343,7 @@
       </c>
       <c r="G81" s="29"/>
     </row>
-    <row r="82" ht="27" spans="1:7">
+    <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="27" t="s">
         <v>169</v>
       </c>
@@ -5423,7 +5398,7 @@
       </c>
       <c r="G84" s="30"/>
     </row>
-    <row r="85" ht="27" spans="1:7">
+    <row r="85" ht="28.5" spans="1:7">
       <c r="A85" s="17" t="s">
         <v>173</v>
       </c>
@@ -5547,7 +5522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" ht="40.5" spans="1:7">
+    <row r="91" ht="42.75" spans="1:7">
       <c r="A91" s="7" t="s">
         <v>183</v>
       </c>
@@ -5566,7 +5541,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" ht="54" spans="1:7">
+    <row r="92" ht="42.75" spans="1:7">
       <c r="A92" s="7" t="s">
         <v>185</v>
       </c>
@@ -5585,7 +5560,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" ht="27" spans="1:7">
+    <row r="93" ht="28.5" spans="1:7">
       <c r="A93" s="7" t="s">
         <v>187</v>
       </c>
@@ -5841,7 +5816,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -6078,7 +6053,7 @@
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -6157,7 +6132,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:7">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>459</v>
       </c>
@@ -6381,7 +6356,7 @@
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -6745,7 +6720,7 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5666666666667" style="15" customWidth="1"/>
@@ -6847,7 +6822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:9">
+    <row r="4" ht="28.5" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -6906,7 +6881,7 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" ht="40.5" spans="1:9">
+    <row r="7" ht="42.75" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>495</v>
       </c>
@@ -6933,7 +6908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:9">
+    <row r="8" ht="42.75" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>497</v>
       </c>
@@ -7174,7 +7149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="54" spans="1:9">
+    <row r="17" ht="57" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>508</v>
       </c>
@@ -7195,7 +7170,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" ht="54" spans="1:9">
+    <row r="18" ht="57" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>510</v>
       </c>
@@ -7216,7 +7191,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" ht="27" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>511</v>
       </c>
@@ -7239,7 +7214,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" ht="54" spans="1:9">
+    <row r="20" ht="57" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>513</v>
       </c>
@@ -7266,7 +7241,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="21" ht="54" spans="1:9">
+    <row r="21" ht="57" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>516</v>
       </c>
@@ -7320,7 +7295,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" ht="54" spans="1:9">
+    <row r="23" ht="57" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>519</v>
       </c>
@@ -7347,7 +7322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="54" spans="1:9">
+    <row r="24" ht="57" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>520</v>
       </c>
@@ -7374,7 +7349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="54" spans="1:9">
+    <row r="25" ht="57" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>521</v>
       </c>
@@ -7401,7 +7376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:9">
+    <row r="26" ht="28.5" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>522</v>
       </c>
@@ -7422,7 +7397,7 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" ht="27" spans="1:9">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>524</v>
       </c>
@@ -7441,7 +7416,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" ht="40.5" spans="1:9">
+    <row r="28" ht="42.75" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>526</v>
       </c>
@@ -7464,7 +7439,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="29" ht="40.5" spans="1:9">
+    <row r="29" ht="42.75" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>530</v>
       </c>
@@ -7487,7 +7462,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="30" ht="40.5" spans="1:9">
+    <row r="30" ht="42.75" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>531</v>
       </c>
@@ -7510,7 +7485,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="31" ht="40.5" spans="1:9">
+    <row r="31" ht="42.75" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>532</v>
       </c>
@@ -7529,7 +7504,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" ht="40.5" spans="1:9">
+    <row r="32" ht="42.75" spans="1:9">
       <c r="A32" s="7" t="s">
         <v>533</v>
       </c>
@@ -7548,7 +7523,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" ht="40.5" spans="1:9">
+    <row r="33" ht="42.75" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>534</v>
       </c>
@@ -7569,7 +7544,7 @@
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" ht="40.5" spans="1:9">
+    <row r="34" ht="42.75" spans="1:9">
       <c r="A34" s="7" t="s">
         <v>535</v>
       </c>
@@ -7588,7 +7563,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" ht="40.5" spans="1:9">
+    <row r="35" ht="42.75" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>536</v>
       </c>
@@ -7859,7 +7834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="40.5" spans="1:9">
+    <row r="46" ht="42.75" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>550</v>
       </c>
@@ -7882,7 +7857,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" ht="40.5" spans="1:9">
+    <row r="47" ht="42.75" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>553</v>
       </c>
@@ -7903,7 +7878,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" ht="40.5" spans="1:9">
+    <row r="48" ht="42.75" spans="1:9">
       <c r="A48" s="7" t="s">
         <v>554</v>
       </c>
@@ -7924,7 +7899,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" ht="40.5" spans="1:9">
+    <row r="49" ht="42.75" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>555</v>
       </c>
@@ -7945,7 +7920,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" ht="40.5" spans="1:9">
+    <row r="50" ht="42.75" spans="1:9">
       <c r="A50" s="7" t="s">
         <v>556</v>
       </c>
@@ -8059,13 +8034,13 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.1416666666667" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>562</v>
       </c>
@@ -14235,7 +14210,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1416666666667" style="13" customWidth="1"/>
@@ -14366,7 +14341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" ht="42.75" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>602</v>
       </c>
@@ -14501,7 +14476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:8">
+    <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>608</v>
       </c>
@@ -16724,7 +16699,7 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1416666666667" style="13" customWidth="1"/>
@@ -16820,7 +16795,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" ht="28.5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>628</v>
       </c>
@@ -19097,7 +19072,7 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="52.1416666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7083333333333" style="1" customWidth="1"/>
@@ -19234,7 +19209,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>643</v>
       </c>
@@ -19310,7 +19285,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="15" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>649</v>
       </c>
@@ -20680,7 +20655,7 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="43.5666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.425" customWidth="1"/>
@@ -20790,19 +20765,19 @@
   <sheetPr/>
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.1416666666667" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>267</v>
       </c>
@@ -21209,10 +21184,10 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="33.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.425" style="13" customWidth="1"/>
@@ -21287,7 +21262,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="27" spans="1:7">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>213</v>
       </c>
@@ -21580,7 +21555,7 @@
       <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5666666666667" style="13" customWidth="1"/>
@@ -21735,7 +21710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:9">
+    <row r="6" ht="28.5" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>242</v>
       </c>
@@ -21762,7 +21737,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:9">
+    <row r="7" ht="28.5" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -21789,7 +21764,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:9">
+    <row r="8" ht="28.5" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -21816,7 +21791,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:9">
+    <row r="9" ht="28.5" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
@@ -21845,7 +21820,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" ht="54" spans="1:9">
+    <row r="10" ht="57" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>246</v>
       </c>
@@ -22013,7 +21988,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:9">
+    <row r="16" ht="28.5" spans="1:9">
       <c r="A16" s="17" t="s">
         <v>252</v>
       </c>
@@ -22042,7 +22017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:9">
+    <row r="17" ht="28.5" spans="1:9">
       <c r="A17" s="17" t="s">
         <v>257</v>
       </c>
@@ -22204,7 +22179,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:9">
+    <row r="23" ht="28.5" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>264</v>
       </c>
@@ -22343,7 +22318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28" s="17" t="s">
         <v>272</v>
       </c>
@@ -22488,7 +22463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:9">
+    <row r="33" ht="28.5" spans="1:9">
       <c r="A33" s="7" t="s">
         <v>139</v>
       </c>
@@ -22600,7 +22575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:9">
+    <row r="37" ht="28.5" spans="1:9">
       <c r="A37" s="17" t="s">
         <v>141</v>
       </c>
@@ -23126,7 +23101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:9">
+    <row r="59" ht="28.5" spans="1:9">
       <c r="A59" s="17" t="s">
         <v>318</v>
       </c>
@@ -23638,7 +23613,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:9">
+    <row r="79" ht="28.5" spans="1:9">
       <c r="A79" s="17" t="s">
         <v>350</v>
       </c>
@@ -23746,7 +23721,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:9">
+    <row r="83" spans="1:9">
       <c r="A83" s="43" t="s">
         <v>361</v>
       </c>
@@ -23964,7 +23939,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:9">
+    <row r="91" ht="28.5" spans="1:9">
       <c r="A91" s="17" t="s">
         <v>371</v>
       </c>
@@ -24062,7 +24037,7 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="33.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5666666666667" style="15" customWidth="1"/>
@@ -24137,7 +24112,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:7">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>379</v>
       </c>
@@ -24294,7 +24269,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.1416666666667" style="15" customWidth="1"/>
@@ -24367,7 +24342,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>390</v>
       </c>
@@ -27810,13 +27785,13 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="33.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5666666666667" style="13" customWidth="1"/>
@@ -27897,7 +27872,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>390</v>
       </c>
@@ -28044,7 +28019,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -31450,7 +31425,7 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.2833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="15" customWidth="1"/>
@@ -31505,7 +31480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
@@ -31597,7 +31572,7 @@
       <selection pane="bottomLeft" activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="46.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.8583333333333" style="15" customWidth="1"/>
@@ -32015,7 +31990,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="27" spans="1:7">
+    <row r="21" ht="28.5" spans="1:7">
       <c r="A21" s="17" t="s">
         <v>441</v>
       </c>
@@ -32036,7 +32011,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:7">
+    <row r="22" ht="28.5" spans="1:7">
       <c r="A22" s="17" t="s">
         <v>444</v>
       </c>
